--- a/Networks/Parte2/Excel/Parte2-Network1.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network1.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.7082243094522083</v>
+        <v>-0.9160666910459944</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.524836030266016</v>
+        <v>-1.056566437996126</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.4934191674927836</v>
+        <v>1.239837176224575</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.020439464707257</v>
+        <v>0.8332499611178321</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.5984070212492952</v>
+        <v>0.9720368665876842</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.3690920077829214</v>
+        <v>-0.1670110671399031</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.8209208377060501</v>
+        <v>-1.939632327693161</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.04600101077676929</v>
+        <v>-0.2979247751224782</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.522753517325437</v>
+        <v>1.604600679975619</v>
       </c>
       <c r="C3" t="n">
-        <v>0.368925915614673</v>
+        <v>0.4277726519311412</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.7115145721052845</v>
+        <v>0.4008681094733339</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.176533135060142</v>
+        <v>0.1528739961421536</v>
       </c>
     </row>
   </sheetData>

--- a/Networks/Parte2/Excel/Parte2-Network1.xlsx
+++ b/Networks/Parte2/Excel/Parte2-Network1.xlsx
@@ -454,10 +454,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.9160666910459944</v>
+        <v>-0.4400819820205796</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.056566437996126</v>
+        <v>-0.1827760305871028</v>
       </c>
     </row>
     <row r="3">
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.239837176224575</v>
+        <v>-1.103531195188436</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8332499611178321</v>
+        <v>-0.2766336750638603</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9720368665876842</v>
+        <v>0.3074702297549578</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1670110671399031</v>
+        <v>-1.53290043198063</v>
       </c>
     </row>
   </sheetData>
@@ -524,10 +524,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-1.939632327693161</v>
+        <v>-0.4356415220920893</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.2979247751224782</v>
+        <v>-0.3284568562298597</v>
       </c>
     </row>
     <row r="3">
@@ -537,10 +537,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.604600679975619</v>
+        <v>-0.5743275939144695</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4277726519311412</v>
+        <v>0.6744243603619372</v>
       </c>
     </row>
     <row r="4">
@@ -550,10 +550,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4008681094733339</v>
+        <v>-1.908292008488429</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1528739961421536</v>
+        <v>0.4097478028414245</v>
       </c>
     </row>
   </sheetData>
